--- a/Customer Survey Data.xlsx
+++ b/Customer Survey Data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JOEL\Desktop\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JOEL\Desktop\Data\EXCEL DATASETS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B10FBB9-27DE-4B90-B9F2-242A55797672}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E1DB4FB-5817-4C6F-BE0B-A908540EFD0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{A9AD115C-8A44-402D-94AB-80E6CBB6B614}"/>
   </bookViews>
@@ -21,7 +21,7 @@
   </definedNames>
   <calcPr calcId="181029"/>
   <pivotCaches>
-    <pivotCache cacheId="9" r:id="rId3"/>
+    <pivotCache cacheId="0" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -204,308 +204,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="65">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="22">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -4145,7 +3844,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{FB05DCE5-8BB6-45AE-BC4C-89732554FECC}" name="PivotTable1" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{FB05DCE5-8BB6-45AE-BC4C-89732554FECC}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="H3:J6" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField showAll="0"/>
@@ -4202,7 +3901,200 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C8246226-FD6F-41CF-A52A-C1D2E2A9080D}" name="PivotTable5" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{05AA2A4B-8757-4AE1-B7D1-EEA534E0FB3E}" name="PivotTable3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="1" rowHeaderCaption="Rating (Quality of Food)">
+  <location ref="A13:B17" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="5">
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField name="Rating (Food Quality)" axis="axisRow" dataField="1" compact="0" outline="0" showAll="0">
+      <items count="6">
+        <item x="4"/>
+        <item x="3"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField axis="axisPage" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="3">
+        <item x="1"/>
+        <item h="1" x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="2"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="4" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Rating Count" fld="2" baseField="2" baseItem="0"/>
+  </dataFields>
+  <formats count="6">
+    <format dxfId="5">
+      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="4">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="3">
+      <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="2">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="2" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="1">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="0">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+  </formats>
+  <chartFormats count="1">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{34ECB8B1-0A9F-47E3-B9C7-4BA35F605EE9}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="1">
+  <location ref="A3:B7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="5">
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField name=" Rating (Overall Delivery Experience)" axis="axisRow" dataField="1" compact="0" outline="0" showAll="0">
+      <items count="6">
+        <item x="4"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField axis="axisPage" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="3">
+        <item x="1"/>
+        <item h="1" x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="4" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Rating Count" fld="1" baseField="0" baseItem="0"/>
+  </dataFields>
+  <formats count="5">
+    <format dxfId="10">
+      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="9">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="8">
+      <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="7">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="1" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="6">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+  </formats>
+  <chartFormats count="1">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C8246226-FD6F-41CF-A52A-C1D2E2A9080D}" name="PivotTable5" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="1">
   <location ref="A25:B29" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="5">
     <pivotField compact="0" outline="0" showAll="0"/>
@@ -4253,220 +4145,27 @@
     <dataField name="Rating (Count)" fld="3" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="6">
-    <format dxfId="59">
+    <format dxfId="16">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="58">
+    <format dxfId="15">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="57">
+    <format dxfId="14">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="56">
+    <format dxfId="13">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="3" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="55">
+    <format dxfId="12">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="54">
+    <format dxfId="11">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
-    </format>
-  </formats>
-  <chartFormats count="1">
-    <chartFormat chart="0" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{05AA2A4B-8757-4AE1-B7D1-EEA534E0FB3E}" name="PivotTable3" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="1" rowHeaderCaption="Rating (Quality of Food)">
-  <location ref="A13:B17" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
-  <pivotFields count="5">
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField name="Rating (Food Quality)" axis="axisRow" dataField="1" compact="0" outline="0" showAll="0">
-      <items count="6">
-        <item x="4"/>
-        <item x="3"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField axis="axisPage" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="3">
-        <item x="1"/>
-        <item h="1" x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="2"/>
-  </rowFields>
-  <rowItems count="4">
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="1">
-    <pageField fld="4" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Rating Count" fld="2" baseField="2" baseItem="0"/>
-  </dataFields>
-  <formats count="6">
-    <format dxfId="52">
-      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="51">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="50">
-      <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="49">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="2" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="48">
-      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="47">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
-    </format>
-  </formats>
-  <chartFormats count="1">
-    <chartFormat chart="0" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{34ECB8B1-0A9F-47E3-B9C7-4BA35F605EE9}" name="PivotTable2" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="1">
-  <location ref="A3:B7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
-  <pivotFields count="5">
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField name=" Rating (Overall Delivery Experience)" axis="axisRow" dataField="1" compact="0" outline="0" showAll="0">
-      <items count="6">
-        <item x="4"/>
-        <item x="3"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField axis="axisPage" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="3">
-        <item x="1"/>
-        <item h="1" x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="1"/>
-  </rowFields>
-  <rowItems count="4">
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="1">
-    <pageField fld="4" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Rating Count" fld="1" baseField="0" baseItem="0"/>
-  </dataFields>
-  <formats count="5">
-    <format dxfId="40">
-      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="41">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="42">
-      <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="43">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="1" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="44">
-      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
   <chartFormats count="1">
@@ -4510,11 +4209,11 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4EBEA459-A339-4914-AB9C-EDCB9302BC6D}" name="Customer_Survey" displayName="Customer_Survey" ref="A1:E41" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:E41" xr:uid="{4EBEA459-A339-4914-AB9C-EDCB9302BC6D}"/>
   <tableColumns count="5">
-    <tableColumn id="6" xr3:uid="{C2C828B7-6F46-4BD6-8ED9-21D6F72EDD01}" uniqueName="6" name="Customer" queryTableFieldId="1" dataDxfId="64"/>
-    <tableColumn id="2" xr3:uid="{86081DCF-06FF-4D7C-AB42-A0BE9D505BA0}" uniqueName="2" name="How satisfied were you with your overall delivery experience at Garden?                    1-5 where 1 = extremely dissatisfied and 5 = extremely satisfied" queryTableFieldId="2" dataDxfId="63"/>
-    <tableColumn id="3" xr3:uid="{B82DD320-DCF0-45D6-A5D2-3B92764D21BC}" uniqueName="3" name="How satisfied were you with the quality of the food at Garden?                             1-5 where 1 = extremely dissatisfied and 5 = extremely satisfied" queryTableFieldId="3" dataDxfId="62"/>
-    <tableColumn id="4" xr3:uid="{3C30B8E7-AFFA-4A29-905F-B8443EAB7C14}" uniqueName="4" name="How satisfied were you with the speed of delivery at Gardent?                                1-5 where 1 = extremely dissatisfied and 5 = extremely satisfied" queryTableFieldId="4" dataDxfId="61"/>
-    <tableColumn id="5" xr3:uid="{4BF2435B-45A8-453D-8FFF-5D344DACB30B}" uniqueName="5" name="Was your order accurate?                                 Please respond yes or no." queryTableFieldId="5" dataDxfId="60"/>
+    <tableColumn id="6" xr3:uid="{C2C828B7-6F46-4BD6-8ED9-21D6F72EDD01}" uniqueName="6" name="Customer" queryTableFieldId="1" dataDxfId="21"/>
+    <tableColumn id="2" xr3:uid="{86081DCF-06FF-4D7C-AB42-A0BE9D505BA0}" uniqueName="2" name="How satisfied were you with your overall delivery experience at Garden?                    1-5 where 1 = extremely dissatisfied and 5 = extremely satisfied" queryTableFieldId="2" dataDxfId="20"/>
+    <tableColumn id="3" xr3:uid="{B82DD320-DCF0-45D6-A5D2-3B92764D21BC}" uniqueName="3" name="How satisfied were you with the quality of the food at Garden?                             1-5 where 1 = extremely dissatisfied and 5 = extremely satisfied" queryTableFieldId="3" dataDxfId="19"/>
+    <tableColumn id="4" xr3:uid="{3C30B8E7-AFFA-4A29-905F-B8443EAB7C14}" uniqueName="4" name="How satisfied were you with the speed of delivery at Gardent?                                1-5 where 1 = extremely dissatisfied and 5 = extremely satisfied" queryTableFieldId="4" dataDxfId="18"/>
+    <tableColumn id="5" xr3:uid="{4BF2435B-45A8-453D-8FFF-5D344DACB30B}" uniqueName="5" name="Was your order accurate?                                 Please respond yes or no." queryTableFieldId="5" dataDxfId="17"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4819,14 +4518,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC1563FF-226E-4D7D-91F7-92575039EAEC}">
   <dimension ref="A1:J41"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.140625" customWidth="1"/>
-    <col min="2" max="2" width="12" customWidth="1"/>
+    <col min="2" max="2" width="25.7109375" customWidth="1"/>
     <col min="3" max="3" width="10.28515625" customWidth="1"/>
     <col min="4" max="4" width="11" customWidth="1"/>
     <col min="5" max="5" width="8.7109375" customWidth="1"/>
